--- a/WebApplication1/Uploads/TKB.xlsx
+++ b/WebApplication1/Uploads/TKB.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>NHOM</t>
   </si>
@@ -37,10 +40,13 @@
     <t>NGAYKETHUC</t>
   </si>
   <si>
-    <t>E1.05.03</t>
-  </si>
-  <si>
-    <t>17DTHD2</t>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>GV2</t>
   </si>
   <si>
     <t>E1.05.04</t>
@@ -49,19 +55,61 @@
     <t>17DTHD3</t>
   </si>
   <si>
+    <t>GV3</t>
+  </si>
+  <si>
     <t>E1.05.05</t>
   </si>
   <si>
     <t>17DTHD4</t>
   </si>
   <si>
+    <t>GV4</t>
+  </si>
+  <si>
     <t>E1.05.06</t>
   </si>
   <si>
     <t>17DTHD5</t>
   </si>
   <si>
-    <t>CA</t>
+    <t>GV5</t>
+  </si>
+  <si>
+    <t>E1.05.07</t>
+  </si>
+  <si>
+    <t>17DTHD6</t>
+  </si>
+  <si>
+    <t>GV6</t>
+  </si>
+  <si>
+    <t>E1.05.08</t>
+  </si>
+  <si>
+    <t>GV7</t>
+  </si>
+  <si>
+    <t>E1.05.09</t>
+  </si>
+  <si>
+    <t>GV8</t>
+  </si>
+  <si>
+    <t>E1.05.10</t>
+  </si>
+  <si>
+    <t>GV9</t>
+  </si>
+  <si>
+    <t>E1.05.11</t>
+  </si>
+  <si>
+    <t>GV10</t>
+  </si>
+  <si>
+    <t>E1.05.12</t>
   </si>
 </sst>
 </file>
@@ -404,20 +452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,216 +486,291 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="G3" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43901</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43901</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H3">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="C4">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
-        <v>43901</v>
-      </c>
-      <c r="G4" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1">
-        <v>43901</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>43901</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>43901</v>
-      </c>
-      <c r="G7" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <v>43901</v>
-      </c>
-      <c r="G8" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1">
-        <v>43901</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44256</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
